--- a/ArtifactIdAppium/TestData/TestData.xlsx
+++ b/ArtifactIdAppium/TestData/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>Verify App Launch screen displays Sign In button.</t>
@@ -311,6 +308,9 @@
   </si>
   <si>
     <t>Verify PB SOS with Video &amp; Location incident when app is in Background.</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -501,8 +501,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="29.0255102040816" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="10.6632653061225" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="28.6173469387755" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="10.530612244898" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -542,19 +543,19 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="12.8265306122449" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="15.3877551020408" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="12.9591836734694" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="14.3112244897959" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="34.8265306122449" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="10.8010204081633" collapsed="true"/>
-    <col min="7" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="12.6887755102041" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="15.2551020408163" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="12.8265306122449" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="14.0408163265306" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="34.4234693877551" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="10.6632653061225" collapsed="true"/>
+    <col min="7" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -635,15 +636,15 @@
   </sheetPr>
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="55.6173469387755" collapsed="true"/>
-    <col min="2" max="3" hidden="false" style="0" width="22.4081632653061" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="54.9438775510204" collapsed="true"/>
+    <col min="2" max="3" hidden="false" style="0" width="22.1377551020408" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -665,34 +666,31 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>20</v>
@@ -701,18 +699,18 @@
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>20</v>
@@ -721,7 +719,7 @@
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>20</v>
@@ -730,7 +728,7 @@
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>20</v>
@@ -739,7 +737,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>20</v>
@@ -748,7 +746,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>20</v>
@@ -757,14 +755,14 @@
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>20</v>
@@ -773,7 +771,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>20</v>
@@ -782,35 +780,35 @@
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>20</v>
@@ -819,392 +817,392 @@
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="10"/>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="10"/>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="10"/>
     </row>
     <row r="50" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="10"/>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="10"/>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="10"/>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="10"/>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="10"/>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="10"/>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="10"/>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="10"/>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="10"/>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="10"/>
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="10"/>
     </row>
     <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="10"/>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B66" s="11"/>
       <c r="C66" s="10"/>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="10"/>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B68" s="11"/>
       <c r="C68" s="10"/>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="10"/>
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="10"/>
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="10"/>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="10"/>
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B73" s="11"/>
       <c r="C73" s="10"/>
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="10"/>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="10"/>

--- a/ArtifactIdAppium/TestData/TestData.xlsx
+++ b/ArtifactIdAppium/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>

--- a/ArtifactIdAppium/TestData/TestData.xlsx
+++ b/ArtifactIdAppium/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>
@@ -687,6 +687,9 @@
       <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">

--- a/ArtifactIdAppium/TestData/TestData.xlsx
+++ b/ArtifactIdAppium/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>

--- a/ArtifactIdAppium/TestData/TestData.xlsx
+++ b/ArtifactIdAppium/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>
